--- a/outputs/CORVALLIS1.xlsx
+++ b/outputs/CORVALLIS1.xlsx
@@ -425,26 +425,26 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page provides a "Want to help?" section that explicitly refers to contributing and includes a link to the `Contribute.md` file. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as it clearly directs her to the relevant information needed to make a documentation contribution.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page contains a section titled "Want to help?" with a direct link to the "Contribute.md" file, which is likely to contain information about documentation contributions. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would likely read through the available information to understand how to contribute to the documentation.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Towards Risk, Learning Style
-Why: While the page does contain a "Want to help?" section that references the `Contribute.md` file, it doesn't explicitly guide Abi on how to search for documentation. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she may not feel assured on how to proceed with searching for documentation based on the information available on this page. Abi might be hesitant to take actions without clear, step-by-step instructions.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a clear section titled "Want to help?" with a direct link to the "Contribute.md" file, which is likely to contain information about documentation contributions. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would likely read through the available information to understand how to contribute to the documentation. The presence of this section makes it clear what Abi should do next.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Towards Risk, Information Processing Style
-Why: Even if Abi manages to search for documentation and lands back on this page, it does not provide enough detailed guidance or confirmation that she is on the right track. While the "Want to help?" section mentions the `Contribute.md` file, it does not provide comprehensive information or clear steps on what to do next. Given Abi's need for detailed instructions and her low confidence in navigating unfamiliar tasks, she might not feel assured that she is making progress towards her goal of making a documentation contribution.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: If Abi clicks on the "Contribute.md" link under the "Want to help?" section, she will be directed to a page that likely contains detailed information about how to contribute to the documentation. This action aligns with her motivation to accomplish tasks and her comprehensive information processing style. The page provides clear guidance and relevant links, ensuring that Abi knows she is making progress toward her goal and can access all the necessary information.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy, Learning Style
-Why: Abi may not immediately recognize that making a contribution to the first `.md` file on this page is a step toward achieving the overall use case. The page lists many files without clearly indicating which one would be the best starting point for a documentation contribution. Given her comprehensive information processing style, Abi may feel overwhelmed by the number of files and may not know which file to choose for her contribution. Additionally, her low confidence in unfamiliar computing tasks and preference for step-by-step guides mean she might not proceed without more explicit instructions.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page provides a list of files, including .md files, it does not explicitly indicate that making a documentation contribution to the first .md file is a step toward achieving the overall use case. Abi might not immediately recognize that editing the first .md file is the correct action without additional guidance. Given Abi's low computer self-efficacy and preference for comprehensive information, she might hesitate to proceed without clear instructions.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Towards Risk, Learning Style
-Why: Abi may not know what to do at this step because there is no explicit indication that clicking on the first `.md` file is the correct action to take for making a documentation contribution. The page does not provide clear step-by-step instructions or enough context to assure Abi that this is the right action. Given her low confidence in unfamiliar tasks and her preference for process-oriented learning, Abi may be hesitant to click on a file without more guidance, as she might fear making a mistake or not being able to complete the task efficiently.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide explicit instructions or context indicating that clicking on the first .md file is the correct action to make a documentation contribution. Given Abi's low computer self-efficacy, she might hesitate to click on the file without clear guidance. Additionally, Abi prefers process-oriented learning and step-by-step instructions, which are not provided on this page. Therefore, she might not feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style, Learning Style
-Why: After clicking on the first `.md` file, Abi lands on a page with detailed technical deployment instructions. This is not relevant to making a documentation contribution and may cause confusion. Abi may not understand how this relates to her goal of contributing to documentation, especially given her low confidence in unfamiliar tasks and need for clear, step-by-step instructions. The content on this page does not provide the information she needs to make a documentation contribution, and she may not feel that she is making progress toward her goal.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the first .md file, Abi lands on a page with detailed deployment instructions. However, this page does not provide information about making a documentation contribution, which is Abi's goal. Given Abi's comprehensive information processing style, she would need clear and relevant information to feel confident that she is making progress toward her goal. Additionally, due to her low computer self-efficacy, she might feel uncertain and confused about whether she is on the right track, as the content does not align with her intended task.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Towards Risk, Learning Style
-Why: The page does not provide enough context or guidance to assure Abi that clicking the "Edit" button is the correct action for making a documentation contribution. There is no explicit instruction or information on the page indicating that the "Edit" button should be used for contributing to documentation. Given Abi's low confidence in unfamiliar tasks and her risk-averse nature, she may hesitate to click the button without more explicit guidance. Additionally, Abi prefers process-oriented learning and may need clearer instructions to feel comfortable taking this action.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide explicit instructions or context indicating that clicking the "Edit" button is the correct action to make a documentation contribution. Given Abi's low computer self-efficacy, she might hesitate to click on the "Edit" button without clear guidance. Additionally, Abi prefers process-oriented learning and step-by-step instructions, which are not provided on this page. Therefore, she might not feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style, Learning Style
-Why: After clicking the "Edit" button, Abi is redirected to a different repository page. This new page contains various files and information about JabRef Bibliography Management, which is unrelated to her initial goal of making a documentation contribution to the first `.md` file. The lack of continuity and relevant information would likely confuse Abi, making her unsure if she did the right thing or is making progress toward her goal. Given her need for clear, step-by-step instructions and comprehensive information, this new page does not provide the necessary guidance or confirmation.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "Edit" button, Abi lands on a different page that does not provide clear feedback or information related to making a documentation contribution. The new page is about JabRef Bibliography Management, which is unrelated to the initial task. This would likely confuse Abi, making her unsure if she did the right thing and if she is making progress toward her goal. Given her comprehensive information processing style and low computer self-efficacy, Abi would need clear and relevant information to feel confident that she is on the right track.</t>
         </is>
       </c>
     </row>
